--- a/FlappyBirdScreenOnExcel.xlsx
+++ b/FlappyBirdScreenOnExcel.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sukhm\Documents\CSC258 - Labs - Prelabs\Assembly Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288F160D-72DD-4185-B4EF-617FCF52FF45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF66D648-3797-4F21-BF8E-444F04196021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3D4202F8-87BC-4BA9-B9D6-75EDD3137006}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,16 +35,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>128*31=124</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t1 = </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,8 +80,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,8 +125,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -242,11 +320,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -273,6 +360,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,15 +714,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85DE90C-613C-43F5-A844-843E0C14EF70}">
-  <dimension ref="A1:AF38"/>
+  <dimension ref="A1:AG88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="W80" sqref="W80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.35">
@@ -622,7 +747,7 @@
       <c r="F1" s="7">
         <v>20</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="43">
         <v>24</v>
       </c>
       <c r="H1" s="7">
@@ -631,31 +756,31 @@
       <c r="I1" s="8">
         <v>32</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="8">
         <v>36</v>
       </c>
       <c r="K1" s="8">
         <v>40</v>
       </c>
-      <c r="L1" s="13">
+      <c r="L1" s="8">
         <v>44</v>
       </c>
-      <c r="M1" s="13">
+      <c r="M1" s="8">
         <v>48</v>
       </c>
-      <c r="N1" s="13">
+      <c r="N1" s="8">
         <v>52</v>
       </c>
       <c r="O1" s="8">
         <v>56</v>
       </c>
-      <c r="P1" s="13">
+      <c r="P1" s="8">
         <v>60</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="Q1" s="44">
         <v>64</v>
       </c>
-      <c r="R1" s="13">
+      <c r="R1" s="8">
         <v>68</v>
       </c>
       <c r="S1" s="8">
@@ -664,7 +789,7 @@
       <c r="T1" s="8">
         <v>76</v>
       </c>
-      <c r="U1" s="13">
+      <c r="U1" s="8">
         <v>80</v>
       </c>
       <c r="V1" s="8">
@@ -673,22 +798,22 @@
       <c r="W1" s="8">
         <v>88</v>
       </c>
-      <c r="X1" s="13">
+      <c r="X1" s="8">
         <v>92</v>
       </c>
       <c r="Y1" s="8">
         <v>96</v>
       </c>
-      <c r="Z1" s="8">
+      <c r="Z1" s="46">
         <v>100</v>
       </c>
       <c r="AA1" s="8">
         <v>104</v>
       </c>
-      <c r="AB1" s="13">
+      <c r="AB1" s="8">
         <v>108</v>
       </c>
-      <c r="AC1" s="8">
+      <c r="AC1" s="46">
         <v>112</v>
       </c>
       <c r="AD1" s="8">
@@ -712,29 +837,29 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="12"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
-      <c r="X2" s="12"/>
+      <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
+      <c r="Z2" s="47"/>
       <c r="AA2" s="7"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="47"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="10">
@@ -748,29 +873,29 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="12"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
-      <c r="U3" s="12"/>
+      <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
-      <c r="X3" s="12"/>
+      <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
+      <c r="Z3" s="47"/>
       <c r="AA3" s="7"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="47"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="10"/>
@@ -782,29 +907,29 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="12"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
-      <c r="U4" s="14"/>
+      <c r="U4" s="45"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
-      <c r="X4" s="12"/>
+      <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
+      <c r="Z4" s="47"/>
       <c r="AA4" s="7"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="47"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="10"/>
@@ -816,29 +941,31 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
       <c r="O5" s="7"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="12"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
-      <c r="U5" s="14"/>
+      <c r="U5" s="45"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
-      <c r="X5" s="12"/>
+      <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
+      <c r="Z5" s="47"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="47"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="10"/>
@@ -855,24 +982,24 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="12"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
-      <c r="U6" s="14"/>
+      <c r="U6" s="45"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
-      <c r="X6" s="12"/>
+      <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="7"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="47"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="10">
@@ -892,23 +1019,23 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="12"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
-      <c r="U7" s="14"/>
+      <c r="U7" s="45"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
-      <c r="X7" s="12"/>
+      <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
-      <c r="AB7" s="12"/>
+      <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
@@ -917,7 +1044,9 @@
     <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="C8" s="28">
+        <v>-256</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -926,23 +1055,23 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="12"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
-      <c r="U8" s="14"/>
+      <c r="U8" s="45"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
-      <c r="AB8" s="12"/>
+      <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
@@ -951,8 +1080,12 @@
     <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="25">
+        <v>-128</v>
+      </c>
+      <c r="D9" s="28">
+        <v>-124</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -965,18 +1098,18 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="12"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
-      <c r="U9" s="14"/>
+      <c r="U9" s="45"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
-      <c r="AB9" s="12"/>
+      <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
@@ -985,9 +1118,15 @@
     <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="7"/>
+      <c r="C10" s="34">
+        <v>0</v>
+      </c>
+      <c r="D10" s="25">
+        <v>4</v>
+      </c>
+      <c r="E10" s="28">
+        <v>8</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -999,18 +1138,18 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="12"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
-      <c r="U10" s="14"/>
+      <c r="U10" s="45"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
-      <c r="AB10" s="12"/>
+      <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
@@ -1019,8 +1158,12 @@
     <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="25">
+        <v>128</v>
+      </c>
+      <c r="D11" s="28">
+        <v>132</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1033,18 +1176,18 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="12"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="14"/>
+      <c r="U11" s="45"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
-      <c r="AB11" s="12"/>
+      <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
@@ -1053,11 +1196,15 @@
     <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="C12" s="28">
+        <v>256</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="43" t="s">
+        <v>4</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -1067,18 +1214,20 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="12"/>
+      <c r="Q12" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
-      <c r="U12" s="14"/>
+      <c r="U12" s="45"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
-      <c r="X12" s="12"/>
+      <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
-      <c r="AB12" s="12"/>
+      <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
@@ -1091,7 +1240,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="43"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1102,13 +1251,13 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="12"/>
+      <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
-      <c r="U13" s="14"/>
+      <c r="U13" s="45"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
-      <c r="X13" s="12"/>
+      <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
@@ -1125,7 +1274,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="43"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1136,13 +1285,13 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="12"/>
+      <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="14"/>
+      <c r="U14" s="45"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
-      <c r="X14" s="12"/>
+      <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
@@ -1159,7 +1308,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="43"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1170,13 +1319,13 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="12"/>
+      <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
-      <c r="U15" s="14"/>
+      <c r="U15" s="45"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
-      <c r="X15" s="12"/>
+      <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
@@ -1193,7 +1342,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="43"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1204,13 +1353,13 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="12"/>
+      <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="14"/>
+      <c r="U16" s="45"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
-      <c r="X16" s="12"/>
+      <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
@@ -1220,443 +1369,446 @@
       <c r="AE16" s="7"/>
       <c r="AF16" s="10"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="12"/>
+      <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="12"/>
+      <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
-      <c r="U17" s="14"/>
+      <c r="U17" s="45"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="12"/>
+      <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
-      <c r="AB17" s="12"/>
+      <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
       <c r="AF17" s="10"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="12"/>
+      <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="12"/>
+      <c r="R18" s="7"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
-      <c r="U18" s="14"/>
+      <c r="U18" s="45"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
-      <c r="X18" s="12"/>
+      <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
-      <c r="AB18" s="12"/>
+      <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="10"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="43"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="12"/>
+      <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="12"/>
+      <c r="R19" s="7"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
-      <c r="U19" s="14"/>
+      <c r="U19" s="45"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="12"/>
+      <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
-      <c r="AB19" s="12"/>
+      <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
       <c r="AF19" s="10"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="12"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="7"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
-      <c r="U20" s="14"/>
+      <c r="U20" s="45"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
-      <c r="X20" s="12"/>
+      <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
-      <c r="AB20" s="12"/>
+      <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
       <c r="AF20" s="10"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="43"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="12"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="7"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
-      <c r="U21" s="14"/>
+      <c r="U21" s="45"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
-      <c r="X21" s="12"/>
+      <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
-      <c r="AB21" s="12"/>
+      <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
       <c r="AF21" s="10"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="12"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
-      <c r="U22" s="14"/>
+      <c r="U22" s="45"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
-      <c r="X22" s="12"/>
+      <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
-      <c r="AB22" s="12"/>
+      <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
       <c r="AF22" s="10"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="G23" s="43"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="12"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="7"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
-      <c r="U23" s="14"/>
+      <c r="U23" s="45"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
-      <c r="X23" s="12"/>
+      <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
-      <c r="AB23" s="12"/>
+      <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
       <c r="AF23" s="10"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="43"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="12"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
-      <c r="U24" s="14"/>
+      <c r="U24" s="45"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
-      <c r="X24" s="12"/>
+      <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
-      <c r="AB24" s="12"/>
+      <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
       <c r="AF24" s="10"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="43"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="12"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="14"/>
+      <c r="U25" s="45"/>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
-      <c r="X25" s="12"/>
+      <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
-      <c r="AB25" s="12"/>
+      <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
       <c r="AF25" s="10"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="43"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="12"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="14"/>
+      <c r="U26" s="45"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="12"/>
+      <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
-      <c r="AB26" s="12"/>
+      <c r="AB26" s="7"/>
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="10"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG26" s="50"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="12"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
-      <c r="U27" s="14"/>
+      <c r="U27" s="45"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
-      <c r="X27" s="12"/>
+      <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
-      <c r="AB27" s="12"/>
+      <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="10"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="G28" s="43"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="12"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
-      <c r="U28" s="14"/>
+      <c r="U28" s="45"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
-      <c r="X28" s="12"/>
+      <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
-      <c r="AB28" s="12"/>
+      <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
       <c r="AF28" s="10"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="43"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="12"/>
+      <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="12"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
-      <c r="U29" s="14"/>
+      <c r="U29" s="45"/>
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
-      <c r="X29" s="12"/>
+      <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
-      <c r="AB29" s="12"/>
+      <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
@@ -1664,7 +1816,7 @@
         <v>3708</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>3712</v>
       </c>
@@ -1683,24 +1835,24 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
+      <c r="Q30" s="48"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
+      <c r="T30" s="48"/>
       <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
+      <c r="V30" s="48"/>
       <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
+      <c r="X30" s="48"/>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="3"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="53"/>
+      <c r="AC30" s="53"/>
+      <c r="AD30" s="53"/>
+      <c r="AE30" s="53"/>
+      <c r="AF30" s="55"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1717,24 +1869,24 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
+      <c r="Q31" s="48"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
+      <c r="T31" s="48"/>
       <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
+      <c r="V31" s="48"/>
       <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
+      <c r="X31" s="48"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
+      <c r="AA31" s="51"/>
       <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
+      <c r="AC31" s="53"/>
       <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
+      <c r="AE31" s="53"/>
       <c r="AF31" s="3"/>
     </row>
-    <row r="32" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1751,22 +1903,22 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
+      <c r="U32" s="49"/>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="6">
+      <c r="X32" s="49"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="54"/>
+      <c r="AD32" s="54"/>
+      <c r="AE32" s="54"/>
+      <c r="AF32" s="56">
         <v>4092</v>
       </c>
     </row>
@@ -1815,8 +1967,1992 @@
       <c r="AE38" s="15"/>
       <c r="AF38" s="16"/>
     </row>
+    <row r="41" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A42" s="7">
+        <v>0</v>
+      </c>
+      <c r="B42" s="7">
+        <v>4</v>
+      </c>
+      <c r="C42" s="7">
+        <v>8</v>
+      </c>
+      <c r="D42" s="7">
+        <v>12</v>
+      </c>
+      <c r="E42" s="7">
+        <v>16</v>
+      </c>
+      <c r="F42" s="7">
+        <v>20</v>
+      </c>
+      <c r="G42" s="7">
+        <v>24</v>
+      </c>
+      <c r="H42" s="7">
+        <v>28</v>
+      </c>
+      <c r="I42" s="8">
+        <v>32</v>
+      </c>
+      <c r="J42" s="13">
+        <v>36</v>
+      </c>
+      <c r="K42" s="8">
+        <v>40</v>
+      </c>
+      <c r="L42" s="13">
+        <v>44</v>
+      </c>
+      <c r="M42" s="13">
+        <v>48</v>
+      </c>
+      <c r="N42" s="13">
+        <v>52</v>
+      </c>
+      <c r="O42" s="8">
+        <v>56</v>
+      </c>
+      <c r="P42" s="13">
+        <v>60</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>64</v>
+      </c>
+      <c r="R42" s="13">
+        <v>68</v>
+      </c>
+      <c r="S42" s="8">
+        <v>72</v>
+      </c>
+      <c r="T42" s="8">
+        <v>76</v>
+      </c>
+      <c r="U42" s="13">
+        <v>80</v>
+      </c>
+      <c r="V42" s="8">
+        <v>84</v>
+      </c>
+      <c r="W42" s="8">
+        <v>88</v>
+      </c>
+      <c r="X42" s="13">
+        <v>92</v>
+      </c>
+      <c r="Y42" s="8">
+        <v>96</v>
+      </c>
+      <c r="Z42" s="8">
+        <v>100</v>
+      </c>
+      <c r="AA42" s="8">
+        <v>104</v>
+      </c>
+      <c r="AB42" s="13">
+        <v>108</v>
+      </c>
+      <c r="AC42" s="8">
+        <v>112</v>
+      </c>
+      <c r="AD42" s="8">
+        <v>116</v>
+      </c>
+      <c r="AE42" s="8">
+        <v>120</v>
+      </c>
+      <c r="AF42" s="26">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A43" s="7">
+        <v>128</v>
+      </c>
+      <c r="B43" s="7">
+        <v>132</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="27">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="27"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="27"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="27"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="27">
+        <f xml:space="preserve"> AF73</f>
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="27"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7">
+        <v>-256</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="27"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A50" s="11"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="25">
+        <v>-128</v>
+      </c>
+      <c r="D50" s="7">
+        <v>-124</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="27"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A51" s="11"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="42">
+        <v>0</v>
+      </c>
+      <c r="D51" s="36">
+        <v>4</v>
+      </c>
+      <c r="E51" s="36">
+        <v>8</v>
+      </c>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="36"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="36"/>
+      <c r="W51" s="36"/>
+      <c r="X51" s="36"/>
+      <c r="Y51" s="36"/>
+      <c r="Z51" s="36"/>
+      <c r="AA51" s="36"/>
+      <c r="AB51" s="36"/>
+      <c r="AC51" s="36"/>
+      <c r="AD51" s="36"/>
+      <c r="AE51" s="36"/>
+      <c r="AF51" s="38"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A52" s="35"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36">
+        <v>128</v>
+      </c>
+      <c r="D52" s="36">
+        <v>132</v>
+      </c>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="36"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="36"/>
+      <c r="W52" s="36"/>
+      <c r="X52" s="36"/>
+      <c r="Y52" s="36"/>
+      <c r="Z52" s="36"/>
+      <c r="AA52" s="36"/>
+      <c r="AB52" s="36"/>
+      <c r="AC52" s="36"/>
+      <c r="AD52" s="36"/>
+      <c r="AE52" s="36"/>
+      <c r="AF52" s="38"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A53" s="35"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36">
+        <v>256</v>
+      </c>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+      <c r="T53" s="36"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="36"/>
+      <c r="W53" s="36"/>
+      <c r="X53" s="36"/>
+      <c r="Y53" s="36"/>
+      <c r="Z53" s="36"/>
+      <c r="AA53" s="36"/>
+      <c r="AB53" s="36"/>
+      <c r="AC53" s="36"/>
+      <c r="AD53" s="36"/>
+      <c r="AE53" s="36"/>
+      <c r="AF53" s="38"/>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A54" s="35"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="36"/>
+      <c r="S54" s="36"/>
+      <c r="T54" s="36"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="36"/>
+      <c r="W54" s="36"/>
+      <c r="X54" s="36"/>
+      <c r="Y54" s="36"/>
+      <c r="Z54" s="36"/>
+      <c r="AA54" s="36"/>
+      <c r="AB54" s="36"/>
+      <c r="AC54" s="36"/>
+      <c r="AD54" s="36"/>
+      <c r="AE54" s="36"/>
+      <c r="AF54" s="38"/>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A55" s="35"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="36"/>
+      <c r="W55" s="36"/>
+      <c r="X55" s="36"/>
+      <c r="Y55" s="36"/>
+      <c r="Z55" s="36"/>
+      <c r="AA55" s="36"/>
+      <c r="AB55" s="36"/>
+      <c r="AC55" s="36"/>
+      <c r="AD55" s="36"/>
+      <c r="AE55" s="36"/>
+      <c r="AF55" s="38"/>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A56" s="35"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="36"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="36"/>
+      <c r="Y56" s="36"/>
+      <c r="Z56" s="36"/>
+      <c r="AA56" s="36"/>
+      <c r="AB56" s="36"/>
+      <c r="AC56" s="36"/>
+      <c r="AD56" s="36"/>
+      <c r="AE56" s="36"/>
+      <c r="AF56" s="38"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A57" s="35"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="36"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="36"/>
+      <c r="Z57" s="36"/>
+      <c r="AA57" s="36"/>
+      <c r="AB57" s="36"/>
+      <c r="AC57" s="36"/>
+      <c r="AD57" s="36"/>
+      <c r="AE57" s="36"/>
+      <c r="AF57" s="38"/>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A58" s="35"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="36"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="36"/>
+      <c r="W58" s="36"/>
+      <c r="X58" s="36"/>
+      <c r="Y58" s="36"/>
+      <c r="Z58" s="36"/>
+      <c r="AA58" s="36"/>
+      <c r="AB58" s="36"/>
+      <c r="AC58" s="36"/>
+      <c r="AD58" s="36"/>
+      <c r="AE58" s="36"/>
+      <c r="AF58" s="38"/>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A59" s="35"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="36"/>
+      <c r="T59" s="36"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="36"/>
+      <c r="W59" s="36"/>
+      <c r="X59" s="36"/>
+      <c r="Y59" s="36"/>
+      <c r="Z59" s="36"/>
+      <c r="AA59" s="36"/>
+      <c r="AB59" s="36"/>
+      <c r="AC59" s="36"/>
+      <c r="AD59" s="36"/>
+      <c r="AE59" s="36"/>
+      <c r="AF59" s="38"/>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A60" s="35"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="36"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="36"/>
+      <c r="W60" s="36"/>
+      <c r="X60" s="36"/>
+      <c r="Y60" s="36"/>
+      <c r="Z60" s="36"/>
+      <c r="AA60" s="36"/>
+      <c r="AB60" s="36"/>
+      <c r="AC60" s="36"/>
+      <c r="AD60" s="36"/>
+      <c r="AE60" s="36"/>
+      <c r="AF60" s="38"/>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A61" s="35"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="36"/>
+      <c r="X61" s="36"/>
+      <c r="Y61" s="36"/>
+      <c r="Z61" s="36"/>
+      <c r="AA61" s="36"/>
+      <c r="AB61" s="36"/>
+      <c r="AC61" s="36"/>
+      <c r="AD61" s="36"/>
+      <c r="AE61" s="36"/>
+      <c r="AF61" s="38"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A62" s="35"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="36"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="36"/>
+      <c r="W62" s="36"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="36"/>
+      <c r="Z62" s="36"/>
+      <c r="AA62" s="36"/>
+      <c r="AB62" s="36"/>
+      <c r="AC62" s="36"/>
+      <c r="AD62" s="36"/>
+      <c r="AE62" s="36"/>
+      <c r="AF62" s="38"/>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A63" s="35"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="36"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="36"/>
+      <c r="W63" s="36"/>
+      <c r="X63" s="36"/>
+      <c r="Y63" s="36"/>
+      <c r="Z63" s="36"/>
+      <c r="AA63" s="36"/>
+      <c r="AB63" s="36"/>
+      <c r="AC63" s="36"/>
+      <c r="AD63" s="36"/>
+      <c r="AE63" s="36"/>
+      <c r="AF63" s="38"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A64" s="35"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="36"/>
+      <c r="U64" s="37"/>
+      <c r="V64" s="36"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="36"/>
+      <c r="Y64" s="36"/>
+      <c r="Z64" s="36"/>
+      <c r="AA64" s="36"/>
+      <c r="AB64" s="36"/>
+      <c r="AC64" s="36"/>
+      <c r="AD64" s="36"/>
+      <c r="AE64" s="36"/>
+      <c r="AF64" s="38"/>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A65" s="35"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="36"/>
+      <c r="T65" s="36"/>
+      <c r="U65" s="37"/>
+      <c r="V65" s="36"/>
+      <c r="W65" s="36"/>
+      <c r="X65" s="36"/>
+      <c r="Y65" s="36"/>
+      <c r="Z65" s="36"/>
+      <c r="AA65" s="36"/>
+      <c r="AB65" s="36"/>
+      <c r="AC65" s="36"/>
+      <c r="AD65" s="36"/>
+      <c r="AE65" s="36"/>
+      <c r="AF65" s="38"/>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A66" s="35"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="36"/>
+      <c r="S66" s="36"/>
+      <c r="T66" s="36"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="36"/>
+      <c r="W66" s="36"/>
+      <c r="X66" s="36"/>
+      <c r="Y66" s="36"/>
+      <c r="Z66" s="36"/>
+      <c r="AA66" s="36"/>
+      <c r="AB66" s="36"/>
+      <c r="AC66" s="36"/>
+      <c r="AD66" s="36"/>
+      <c r="AE66" s="36"/>
+      <c r="AF66" s="38"/>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A67" s="35"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="36"/>
+      <c r="S67" s="36"/>
+      <c r="T67" s="36"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="36"/>
+      <c r="W67" s="36"/>
+      <c r="X67" s="36"/>
+      <c r="Y67" s="36"/>
+      <c r="Z67" s="36"/>
+      <c r="AA67" s="36"/>
+      <c r="AB67" s="36"/>
+      <c r="AC67" s="36"/>
+      <c r="AD67" s="36"/>
+      <c r="AE67" s="36"/>
+      <c r="AF67" s="38"/>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A68" s="35"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="36"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="36"/>
+      <c r="W68" s="36"/>
+      <c r="X68" s="36"/>
+      <c r="Y68" s="36"/>
+      <c r="Z68" s="36"/>
+      <c r="AA68" s="36"/>
+      <c r="AB68" s="36"/>
+      <c r="AC68" s="36"/>
+      <c r="AD68" s="36"/>
+      <c r="AE68" s="36"/>
+      <c r="AF68" s="38"/>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A69" s="35"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="36"/>
+      <c r="U69" s="37"/>
+      <c r="V69" s="36"/>
+      <c r="W69" s="36"/>
+      <c r="X69" s="36"/>
+      <c r="Y69" s="36"/>
+      <c r="Z69" s="36"/>
+      <c r="AA69" s="36"/>
+      <c r="AB69" s="36"/>
+      <c r="AC69" s="36"/>
+      <c r="AD69" s="36"/>
+      <c r="AE69" s="36"/>
+      <c r="AF69" s="38"/>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A70" s="35"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="36"/>
+      <c r="P70" s="36"/>
+      <c r="Q70" s="36"/>
+      <c r="R70" s="36"/>
+      <c r="S70" s="36"/>
+      <c r="T70" s="36"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="36"/>
+      <c r="W70" s="36"/>
+      <c r="X70" s="36"/>
+      <c r="Y70" s="36"/>
+      <c r="Z70" s="36"/>
+      <c r="AA70" s="36"/>
+      <c r="AB70" s="36"/>
+      <c r="AC70" s="36"/>
+      <c r="AD70" s="36"/>
+      <c r="AE70" s="36"/>
+      <c r="AF70" s="38">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A71" s="35">
+        <v>3712</v>
+      </c>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="36"/>
+      <c r="R71" s="36"/>
+      <c r="S71" s="36"/>
+      <c r="T71" s="36"/>
+      <c r="U71" s="36"/>
+      <c r="V71" s="36"/>
+      <c r="W71" s="36"/>
+      <c r="X71" s="36"/>
+      <c r="Y71" s="36"/>
+      <c r="Z71" s="36"/>
+      <c r="AA71" s="36"/>
+      <c r="AB71" s="36"/>
+      <c r="AC71" s="36"/>
+      <c r="AD71" s="36"/>
+      <c r="AE71" s="36"/>
+      <c r="AF71" s="38"/>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A72" s="35"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
+      <c r="R72" s="36"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="36"/>
+      <c r="U72" s="36"/>
+      <c r="V72" s="36"/>
+      <c r="W72" s="36"/>
+      <c r="X72" s="36"/>
+      <c r="Y72" s="36"/>
+      <c r="Z72" s="36"/>
+      <c r="AA72" s="36"/>
+      <c r="AB72" s="36"/>
+      <c r="AC72" s="36"/>
+      <c r="AD72" s="36"/>
+      <c r="AE72" s="36"/>
+      <c r="AF72" s="38"/>
+    </row>
+    <row r="73" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="39"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="40"/>
+      <c r="N73" s="40"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="40"/>
+      <c r="R73" s="40"/>
+      <c r="S73" s="40"/>
+      <c r="T73" s="40"/>
+      <c r="U73" s="40"/>
+      <c r="V73" s="40"/>
+      <c r="W73" s="40"/>
+      <c r="X73" s="40"/>
+      <c r="Y73" s="40"/>
+      <c r="Z73" s="40"/>
+      <c r="AA73" s="40"/>
+      <c r="AB73" s="40"/>
+      <c r="AC73" s="40"/>
+      <c r="AD73" s="40"/>
+      <c r="AE73" s="40"/>
+      <c r="AF73" s="41">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>3712</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="48"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="48"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="48"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="50"/>
+      <c r="S78" s="53"/>
+      <c r="T78" s="51"/>
+      <c r="U78" s="53"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="50"/>
+      <c r="AA78" s="50"/>
+      <c r="AB78" s="50"/>
+      <c r="AC78" s="2"/>
+      <c r="AD78" s="2"/>
+      <c r="AE78" s="2"/>
+      <c r="AF78" s="3"/>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A79" s="1"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="48"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="48"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="48"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="50"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="51"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="50"/>
+      <c r="AA79" s="50"/>
+      <c r="AB79" s="50"/>
+      <c r="AC79" s="2"/>
+      <c r="AD79" s="2"/>
+      <c r="AE79" s="2"/>
+      <c r="AF79" s="3"/>
+    </row>
+    <row r="80" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="4"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="49"/>
+      <c r="J80" s="49"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="49"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="49"/>
+      <c r="Q80" s="49"/>
+      <c r="R80" s="50"/>
+      <c r="S80" s="52"/>
+      <c r="T80" s="52"/>
+      <c r="U80" s="54"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="50"/>
+      <c r="AA80" s="50"/>
+      <c r="AB80" s="50"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="5"/>
+      <c r="AF80" s="6">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>3712</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="48"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="48"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="48"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="50"/>
+      <c r="S82" s="53"/>
+      <c r="T82" s="51"/>
+      <c r="U82" s="53"/>
+      <c r="V82" s="53"/>
+      <c r="W82" s="53"/>
+      <c r="X82" s="50"/>
+      <c r="Y82" s="50"/>
+      <c r="Z82" s="50"/>
+      <c r="AA82" s="50"/>
+      <c r="AB82" s="50"/>
+      <c r="AC82" s="50"/>
+      <c r="AD82" s="50"/>
+      <c r="AE82" s="2"/>
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="48"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="48"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="48"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="50"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="51"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="53"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="50"/>
+      <c r="Y83" s="50"/>
+      <c r="Z83" s="50"/>
+      <c r="AA83" s="50"/>
+      <c r="AB83" s="50"/>
+      <c r="AC83" s="50"/>
+      <c r="AD83" s="50"/>
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="3"/>
+    </row>
+    <row r="84" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="4"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="49"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="49"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="49"/>
+      <c r="Q84" s="49"/>
+      <c r="R84" s="50"/>
+      <c r="S84" s="52"/>
+      <c r="T84" s="52"/>
+      <c r="U84" s="54"/>
+      <c r="V84" s="54"/>
+      <c r="W84" s="54"/>
+      <c r="X84" s="50"/>
+      <c r="Y84" s="50"/>
+      <c r="Z84" s="50"/>
+      <c r="AA84" s="50"/>
+      <c r="AB84" s="50"/>
+      <c r="AC84" s="50"/>
+      <c r="AD84" s="50"/>
+      <c r="AE84" s="5"/>
+      <c r="AF84" s="6">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="X85" s="58"/>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>3712</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="48"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="48"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="48"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="50"/>
+      <c r="S86" s="53"/>
+      <c r="T86" s="51"/>
+      <c r="U86" s="53"/>
+      <c r="V86" s="53"/>
+      <c r="W86" s="53"/>
+      <c r="X86" s="53"/>
+      <c r="Y86" s="55"/>
+      <c r="Z86" s="50"/>
+      <c r="AA86" s="50"/>
+      <c r="AB86" s="50"/>
+      <c r="AC86" s="50"/>
+      <c r="AD86" s="50"/>
+      <c r="AE86" s="50"/>
+      <c r="AF86" s="50"/>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="48"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="48"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="48"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="50"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="51"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="53"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="53"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="50"/>
+      <c r="AA87" s="50"/>
+      <c r="AB87" s="50"/>
+      <c r="AC87" s="50"/>
+      <c r="AD87" s="50"/>
+      <c r="AE87" s="50"/>
+      <c r="AF87" s="50"/>
+    </row>
+    <row r="88" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="4"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="49"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="49"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="49"/>
+      <c r="Q88" s="49"/>
+      <c r="R88" s="50"/>
+      <c r="S88" s="52"/>
+      <c r="T88" s="52"/>
+      <c r="U88" s="54"/>
+      <c r="V88" s="54"/>
+      <c r="W88" s="54"/>
+      <c r="X88" s="54"/>
+      <c r="Y88" s="56"/>
+      <c r="Z88" s="50"/>
+      <c r="AA88" s="50"/>
+      <c r="AB88" s="50"/>
+      <c r="AC88" s="50"/>
+      <c r="AD88" s="50"/>
+      <c r="AE88" s="50"/>
+      <c r="AF88" s="50"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E75725-7530-4B5F-9505-96BE96008F41}">
+  <dimension ref="A6:R37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="6" spans="7:13" x14ac:dyDescent="0.35">
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="30"/>
+    </row>
+    <row r="7" spans="7:13" x14ac:dyDescent="0.35">
+      <c r="G7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="30"/>
+    </row>
+    <row r="8" spans="7:13" x14ac:dyDescent="0.35">
+      <c r="G8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="30"/>
+    </row>
+    <row r="9" spans="7:13" x14ac:dyDescent="0.35">
+      <c r="G9" s="30"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="30"/>
+    </row>
+    <row r="10" spans="7:13" x14ac:dyDescent="0.35">
+      <c r="G10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="30"/>
+    </row>
+    <row r="11" spans="7:13" x14ac:dyDescent="0.35">
+      <c r="G11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="30"/>
+    </row>
+    <row r="12" spans="7:13" x14ac:dyDescent="0.35">
+      <c r="G12" s="30"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="30"/>
+    </row>
+    <row r="13" spans="7:13" x14ac:dyDescent="0.35">
+      <c r="G13" s="30"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="30"/>
+    </row>
+    <row r="14" spans="7:13" x14ac:dyDescent="0.35">
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EF48A-739D-4680-B689-348D011BFFF3}">
+  <dimension ref="D13:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D15" s="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D16" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="57"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D18" s="57"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D19" s="57"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D20" s="57"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D21" s="57"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>